--- a/exportTestFiles/trainingTemplate.xlsx
+++ b/exportTestFiles/trainingTemplate.xlsx
@@ -1,47 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanhualuo/Desktop/NursingManagement/exportTestFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27647C16-A732-2447-8C1E-3D1DED97337D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="12580" yWindow="2180" windowWidth="15880" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database in java" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>科室</t>
-  </si>
-  <si>
-    <t>职位</t>
-  </si>
-  <si>
-    <t>职称</t>
+    <t>工号</t>
   </si>
   <si>
     <t>得分</t>
+  </si>
+  <si>
+    <t>是否完成</t>
   </si>
   <si>
     <t>备注</t>
@@ -50,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,10 +77,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -142,9 +135,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -172,14 +165,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -207,6 +217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,16 +385,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,9 +410,6 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
